--- a/Code/Results/results.xlsx
+++ b/Code/Results/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spijs\Documents\School\Thesis\thesisImageNL\Code\eval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spijs\Documents\School\Thesis\thesisImageNL\Code\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
   <si>
     <t>RNN+LDA</t>
   </si>
@@ -261,9 +261,6 @@
     <t>glstm + cca 128 pert</t>
   </si>
   <si>
-    <t>* Not in train = niet in ongewijzigde train</t>
-  </si>
-  <si>
     <t>glstm cca 256 pert</t>
   </si>
   <si>
@@ -279,12 +276,6 @@
     <t>model_checkpoint_flickr30k_paris_baseline_29.75.p</t>
   </si>
   <si>
-    <t>glstm_lda120_pert_struct.json</t>
-  </si>
-  <si>
-    <t>Heel veel hele grote zinnnen</t>
-  </si>
-  <si>
     <t>glstm lda, img once</t>
   </si>
   <si>
@@ -631,6 +622,9 @@
   </si>
   <si>
     <t>VOORLOPIG+beam10 31,46 glstm_cca256_pert_beam10.json</t>
+  </si>
+  <si>
+    <t>final_lda120pert.json</t>
   </si>
 </sst>
 </file>
@@ -722,7 +716,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="20">
     <dxf>
       <font>
         <u/>
@@ -756,30 +750,6 @@
     <dxf>
       <font>
         <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -1234,11 +1204,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1718927872"/>
-        <c:axId val="1718936576"/>
+        <c:axId val="753385088"/>
+        <c:axId val="931888288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1718927872"/>
+        <c:axId val="753385088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1718936576"/>
+        <c:crossAx val="931888288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1289,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1718936576"/>
+        <c:axId val="931888288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1718927872"/>
+        <c:crossAx val="753385088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2285,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,7 +2362,7 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>0.85</v>
@@ -2414,7 +2384,7 @@
         <v>15.13</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -2759,10 +2729,10 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13">
         <v>24.58</v>
@@ -3025,10 +2995,10 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20">
         <v>23.51</v>
@@ -3139,10 +3109,10 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D23">
         <v>23.51</v>
@@ -3317,34 +3287,16 @@
         <v>29.7</v>
       </c>
       <c r="E33">
-        <v>43.7</v>
+        <v>63.7</v>
       </c>
       <c r="F33">
-        <v>25.5</v>
+        <v>42.6</v>
       </c>
       <c r="G33">
-        <v>14.6</v>
+        <v>27.9</v>
       </c>
       <c r="H33">
-        <v>9</v>
-      </c>
-      <c r="I33">
-        <v>12.52</v>
-      </c>
-      <c r="J33">
-        <v>248</v>
-      </c>
-      <c r="K33">
-        <v>13.862</v>
-      </c>
-      <c r="L33">
-        <v>993</v>
-      </c>
-      <c r="M33">
-        <v>738</v>
-      </c>
-      <c r="N33" t="s">
-        <v>78</v>
+        <v>18.2</v>
       </c>
       <c r="O33" t="s">
         <v>68</v>
@@ -3352,46 +3304,31 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>29.75</v>
       </c>
       <c r="E34">
-        <v>55.3</v>
+        <v>63.8</v>
       </c>
       <c r="F34">
-        <v>33.6</v>
+        <v>42.6</v>
       </c>
       <c r="G34">
-        <v>20.2</v>
+        <v>27.9</v>
       </c>
       <c r="H34">
-        <v>12.7</v>
+        <v>18.2</v>
       </c>
       <c r="I34">
-        <v>12.7</v>
-      </c>
-      <c r="J34">
-        <v>208</v>
-      </c>
-      <c r="K34">
-        <v>9.5960000000000001</v>
-      </c>
-      <c r="L34">
-        <v>912</v>
-      </c>
-      <c r="M34">
-        <v>363</v>
-      </c>
-      <c r="N34" t="s">
-        <v>85</v>
+        <v>15.81</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -3405,34 +3342,19 @@
         <v>29.27</v>
       </c>
       <c r="E36">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="F36">
-        <v>36.200000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="G36">
-        <v>22.6</v>
+        <v>27.9</v>
       </c>
       <c r="H36">
-        <v>14.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I36">
-        <v>13.53</v>
-      </c>
-      <c r="J36">
-        <v>179</v>
-      </c>
-      <c r="K36">
-        <v>8.9540000000000006</v>
-      </c>
-      <c r="L36">
-        <v>844</v>
-      </c>
-      <c r="M36">
-        <v>420</v>
-      </c>
-      <c r="N36" t="s">
-        <v>78</v>
+        <v>15.47</v>
       </c>
       <c r="O36" t="s">
         <v>77</v>
@@ -3440,31 +3362,31 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37">
-        <v>31.46</v>
+        <v>30.94</v>
       </c>
       <c r="E37">
-        <v>54.4</v>
+        <v>63.4</v>
       </c>
       <c r="F37">
-        <v>34.5</v>
+        <v>42.7</v>
       </c>
       <c r="G37">
-        <v>21.7</v>
+        <v>28.6</v>
       </c>
       <c r="H37">
-        <v>13.9</v>
+        <v>18.8</v>
       </c>
       <c r="I37">
-        <v>14.1</v>
+        <v>15.3</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -3532,10 +3454,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
         <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>83</v>
       </c>
       <c r="J46">
         <v>14.2</v>
@@ -3543,10 +3465,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J47">
         <v>17.899999999999999</v>
@@ -3554,10 +3476,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J48">
         <v>19.7</v>
@@ -3914,10 +3836,10 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -3925,201 +3847,201 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -4133,16 +4055,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -4156,16 +4078,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -4179,16 +4101,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -4202,16 +4124,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -4225,16 +4147,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -4248,10 +4170,10 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H23">
         <v>8</v>
@@ -4265,10 +4187,10 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H24">
         <v>9</v>
@@ -4282,10 +4204,10 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -4299,10 +4221,10 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H26">
         <v>11</v>
@@ -4316,7 +4238,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -4330,7 +4252,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H28">
         <v>13</v>
@@ -4344,7 +4266,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H29">
         <v>14</v>
@@ -4358,7 +4280,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H30">
         <v>15</v>
@@ -4372,7 +4294,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H31">
         <v>20</v>
@@ -4386,149 +4308,149 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
